--- a/SampleApp/模版/PeopleInfo.xlsx
+++ b/SampleApp/模版/PeopleInfo.xlsx
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,13 +53,17 @@
   </si>
   <si>
     <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,14 +197,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -485,7 +485,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -509,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -518,13 +520,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>36412</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>15</v>
@@ -536,11 +538,11 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>16</v>

--- a/SampleApp/模版/PeopleInfo.xlsx
+++ b/SampleApp/模版/PeopleInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,30 @@
   </si>
   <si>
     <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33333333333333333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44444444444444444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,91 +507,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>36412</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>15</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>16</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>36161</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>32363</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SampleApp/模版/PeopleInfo.xlsx
+++ b/SampleApp/模版/PeopleInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
